--- a/en/docs/Practice_collection_for_scrum_development.xlsx
+++ b/en/docs/Practice_collection_for_scrum_development.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A9416C-F8A2-4101-A3DF-15C2B19E89F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F410FA-CFE3-48C1-9DDD-1EBB947E0B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,28 +695,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
-* Scrum master and collaborator had strong technical skills
-* The second-year and third-year programmers had business knowledge but did not have much development experience</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
-* The third-year programmer and one second-year programmer had business knowledge, but the other members did not have much
-* The third-year programmer and second-year programmer with business knowledge tended to lead investigation tasks such as those related to operations.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
-* There was an imbalance in the technical skill level of the members</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one collaborator
-* Only the scrum master was knowledgeable about scrums</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* Team members became to ask simple questions easily, which eliminates the need for time-consuming Q&amp;As and emails, and frees up more time for development tasks.
 * There are fewer misunderstandings than before as team members can discuss matters to make sure they are on the same page
 * The quality of information from the PO and other business  experts is now higher (as information is now being provided in a way that makes it easy for the development team to understand what the PO and other business experts have in mind)</t>
@@ -772,6 +750,28 @@
       <t xml:space="preserve">
 * Our newer team members also lack knowledge and practical experience with Java</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one external partner
+* Scrum master and external partner had strong technical skills
+* The second-year and third-year programmers had business knowledge but did not have much development experience</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one external partner
+* The third-year programmer and one second-year programmer had business knowledge, but the other members did not have much
+* The third-year programmer and second-year programmer with business knowledge tended to lead investigation tasks such as those related to operations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one external partner
+* There was an imbalance in the technical skill level of the members</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* Seventh-year scrum master and development team containing two second-year programmers, one third-year programmer and one external partner
+* Only the scrum master was knowledgeable about scrums</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6149,7 +6149,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>134</v>
@@ -6169,7 +6169,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>39</v>
@@ -6209,7 +6209,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>40</v>
@@ -6249,7 +6249,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>42</v>
@@ -6441,7 +6441,7 @@
         <v>132</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6501,7 +6501,7 @@
         <v>91</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6529,7 +6529,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>53</v>
